--- a/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.cost.effectiveDate` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a component extension (e.g., if this element is used as a content reference).
-Element `MedicationKnowledge.cost.effectiveDate` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.cost.effectiveDate` is will have a context of MedicationKnowledge.cost based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.id</t>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `MedicationKnowledge.cost` 0..* `BackboneElement`
 *  R4: `MedicationKnowledge.cost` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicationKnowledge.cost` is mapped to FHIR R4 element `MedicationKnowledge.cost`.</t>
+Element `MedicationKnowledge.cost` has is mapped to FHIR R4 element `MedicationKnowledge.cost`, but has no comparisons.
+Note available implied context: `MedicationKnowledge.packaging.cost` because `MedicationKnowledge.packaging.cost` is defined as a content reference to `MedicationKnowledge.cost`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:MedicationKnowledge.cost</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>The date range for which the cost information of the medication is effective.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.effectiveDate` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a component extension (e.g., if this element is used as a content reference).
-Element `MedicationKnowledge.cost.effectiveDate` is will have a context of MedicationKnowledge.cost based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.cost.effectiveDate` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
+Element `MedicationKnowledge.cost.effectiveDate` has a context of MedicationKnowledge.cost based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.id</t>
@@ -429,8 +430,8 @@
     <t>The category of the cost information.  For example, manufacturers' cost, patient cost, claim reimbursement cost, actual acquisition cost.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.type` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a component extension (e.g., if this element is used as a content reference).
-Element `MedicationKnowledge.cost.type` is mapped to FHIR R4 element `MedicationKnowledge.cost.type`.</t>
+    <t>Element `MedicationKnowledge.cost.type` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
+Element `MedicationKnowledge.cost.type` has is mapped to FHIR R4 element `MedicationKnowledge.cost.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -464,8 +465,8 @@
     <t>The source or owner that assigns the price to the medication.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.source` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a component extension (e.g., if this element is used as a content reference).
-Element `MedicationKnowledge.cost.source` is mapped to FHIR R4 element `MedicationKnowledge.cost.source`.</t>
+    <t>Element `MedicationKnowledge.cost.source` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
+Element `MedicationKnowledge.cost.source` has is mapped to FHIR R4 element `MedicationKnowledge.cost.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:source.id</t>
@@ -495,8 +496,8 @@
     <t>The price or representation of the cost (for example, Band A, Band B or $, $$) of the medication.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.cost[x]` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a component extension (e.g., if this element is used as a content reference).
-Element `MedicationKnowledge.cost.cost[x]` is mapped to FHIR R4 element `MedicationKnowledge.cost.cost`.</t>
+    <t>Element `MedicationKnowledge.cost.cost[x]` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
+Element `MedicationKnowledge.cost.cost[x]` has is mapped to FHIR R4 element `MedicationKnowledge.cost.cost`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:cost.id</t>
@@ -861,7 +862,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="178.77734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="155.7578125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.cost.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `MedicationKnowledge.cost` 0..* `BackboneElement`
 *  R4: `MedicationKnowledge.cost` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicationKnowledge.cost` has is mapped to FHIR R4 element `MedicationKnowledge.cost`, but has no comparisons.
+Element `MedicationKnowledge.cost` is mapped to FHIR R4 element `MedicationKnowledge.cost` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note available implied context: `MedicationKnowledge.packaging.cost` because `MedicationKnowledge.packaging.cost` is defined as a content reference to `MedicationKnowledge.cost`.</t>
   </si>
   <si>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,8 +344,8 @@
     <t>The date range for which the cost information of the medication is effective.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.effectiveDate` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
-Element `MedicationKnowledge.cost.effectiveDate` has a context of MedicationKnowledge.cost based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
+    <t>Element `MedicationKnowledge.cost.effectiveDate` has a context of MedicationKnowledge.cost based on following the parent source element upwards and mapping to `MedicationKnowledge`.
+Note available implied context: `MedicationKnowledge.packaging.cost` because `MedicationKnowledge.packaging.cost` is defined via a content reference to `MedicationKnowledge.cost`.</t>
   </si>
   <si>
     <t>Extension.extension:effectiveDate.id</t>
@@ -430,8 +430,8 @@
     <t>The category of the cost information.  For example, manufacturers' cost, patient cost, claim reimbursement cost, actual acquisition cost.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.type` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
-Element `MedicationKnowledge.cost.type` has is mapped to FHIR R4 element `MedicationKnowledge.cost.type`, but has no comparisons.</t>
+    <t>Element `MedicationKnowledge.cost.type` is mapped to FHIR R4 element `MedicationKnowledge.cost.type` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `MedicationKnowledge.packaging.cost.type` because `MedicationKnowledge.packaging.cost` is defined via a content reference to `MedicationKnowledge.cost`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -465,8 +465,8 @@
     <t>The source or owner that assigns the price to the medication.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.source` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
-Element `MedicationKnowledge.cost.source` has is mapped to FHIR R4 element `MedicationKnowledge.cost.source`, but has no comparisons.</t>
+    <t>Element `MedicationKnowledge.cost.source` is mapped to FHIR R4 element `MedicationKnowledge.cost.source` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `MedicationKnowledge.packaging.cost.source` because `MedicationKnowledge.packaging.cost` is defined via a content reference to `MedicationKnowledge.cost`.</t>
   </si>
   <si>
     <t>Extension.extension:source.id</t>
@@ -496,8 +496,8 @@
     <t>The price or representation of the cost (for example, Band A, Band B or $, $$) of the medication.</t>
   </si>
   <si>
-    <t>Element `MedicationKnowledge.cost.cost[x]` is part of an existing definition because parent element `MedicationKnowledge.cost` requires a cross-version extension.
-Element `MedicationKnowledge.cost.cost[x]` has is mapped to FHIR R4 element `MedicationKnowledge.cost.cost`, but has no comparisons.</t>
+    <t>Element `MedicationKnowledge.cost.cost[x]` is mapped to FHIR R4 element `MedicationKnowledge.cost.cost` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `MedicationKnowledge.packaging.cost.cost` because `MedicationKnowledge.packaging.cost` is defined via a content reference to `MedicationKnowledge.cost`.</t>
   </si>
   <si>
     <t>Extension.extension:cost.id</t>
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t>Extension.extension:cost.value[x]</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept defining the category of a medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medication-cost-category-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>base64Binary
@@ -862,7 +871,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="155.7578125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="167.5078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -872,8 +881,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.2421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3358,13 +3367,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3533,13 +3542,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
